--- a/arquivos/CI_Anta_Gorda.xlsx
+++ b/arquivos/CI_Anta_Gorda.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6f68d678cfe6957/Documentos/Mestrado/SuperCIATA/arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C86D64-3386-497A-8280-BC033CE1C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{74C86D64-3386-497A-8280-BC033CE1C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3D9721-70C9-4635-9831-290440D44641}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E701DE8E-4CB7-44CD-9BA9-69F3EA253A04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E701DE8E-4CB7-44CD-9BA9-69F3EA253A04}"/>
   </bookViews>
   <sheets>
     <sheet name="CI_Anta_Gorda" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'CI_Anta_Gorda'!$B$1:$I$95</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="402">
   <si>
     <t>Número Cadastro</t>
   </si>
@@ -1302,9 +1303,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1767,22 +1767,22 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2">
@@ -1793,28 +1793,28 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3">
@@ -1825,28 +1825,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4">
@@ -1857,28 +1857,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
@@ -1889,28 +1889,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6">
@@ -1921,28 +1921,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7">
@@ -1953,28 +1953,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8">
@@ -1985,28 +1985,28 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="I9">
@@ -2017,28 +2017,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
       <c r="I10">
@@ -2049,28 +2049,28 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11">
@@ -2081,28 +2081,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12">
@@ -2113,28 +2113,28 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13">
@@ -2145,28 +2145,28 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14">
@@ -2177,28 +2177,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15">
@@ -2209,28 +2209,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
       <c r="I16">
@@ -2241,28 +2241,28 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
       <c r="I17">
@@ -2273,28 +2273,28 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18">
@@ -2305,28 +2305,28 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
@@ -2337,28 +2337,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
       <c r="I20">
@@ -2369,28 +2369,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="I21">
@@ -2401,28 +2401,28 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>9</v>
       </c>
       <c r="I22">
@@ -2433,28 +2433,28 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="I23">
@@ -2465,28 +2465,28 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>9</v>
       </c>
       <c r="I24">
@@ -2497,28 +2497,28 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>9</v>
       </c>
       <c r="I25">
@@ -2529,28 +2529,28 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>9</v>
       </c>
       <c r="I26">
@@ -2561,28 +2561,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>9</v>
       </c>
       <c r="I27">
@@ -2593,28 +2593,28 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>9</v>
       </c>
       <c r="I28">
@@ -2625,28 +2625,28 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>9</v>
       </c>
       <c r="I29">
@@ -2657,28 +2657,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>9</v>
       </c>
       <c r="I30">
@@ -2689,28 +2689,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>9</v>
       </c>
       <c r="I31">
@@ -2721,28 +2721,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>16</v>
       </c>
       <c r="I32">
@@ -2753,28 +2753,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="I33">
@@ -2785,28 +2785,28 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>9</v>
       </c>
       <c r="I34">
@@ -2817,28 +2817,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>9</v>
       </c>
       <c r="I35">
@@ -2849,28 +2849,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="I36">
@@ -2881,28 +2881,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>9</v>
       </c>
       <c r="I37">
@@ -2913,28 +2913,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>16</v>
       </c>
       <c r="I38">
@@ -2945,28 +2945,28 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>9</v>
       </c>
       <c r="I39">
@@ -2977,28 +2977,28 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40">
@@ -3009,28 +3009,28 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>9</v>
       </c>
       <c r="I41">
@@ -3041,28 +3041,28 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>9</v>
       </c>
       <c r="I42">
@@ -3073,28 +3073,28 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>9</v>
       </c>
       <c r="I43">
@@ -3105,28 +3105,28 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>70</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>9</v>
       </c>
       <c r="I44">
@@ -3137,28 +3137,28 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>9</v>
       </c>
       <c r="I45">
@@ -3169,28 +3169,28 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46">
@@ -3201,28 +3201,28 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>9</v>
       </c>
       <c r="I47">
@@ -3233,28 +3233,28 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>9</v>
       </c>
       <c r="I48">
@@ -3265,28 +3265,28 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>9</v>
       </c>
       <c r="I49">
@@ -3297,28 +3297,28 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>9</v>
       </c>
       <c r="I50">
@@ -3329,28 +3329,28 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>9</v>
       </c>
       <c r="I51">
@@ -3361,28 +3361,28 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" t="s">
         <v>9</v>
       </c>
       <c r="I52">
@@ -3393,28 +3393,28 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>131</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>9</v>
       </c>
       <c r="I53">
@@ -3425,28 +3425,28 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>133</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" t="s">
         <v>9</v>
       </c>
       <c r="I54">
@@ -3457,28 +3457,28 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" t="s">
         <v>9</v>
       </c>
       <c r="I55">
@@ -3489,28 +3489,28 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>9</v>
       </c>
       <c r="I56">
@@ -3521,28 +3521,28 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>138</v>
       </c>
       <c r="I57">
@@ -3553,28 +3553,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>9</v>
       </c>
       <c r="I58">
@@ -3585,28 +3585,28 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>9</v>
       </c>
       <c r="I59">
@@ -3617,28 +3617,28 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>9</v>
       </c>
       <c r="I60">
@@ -3649,28 +3649,28 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>145</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>16</v>
       </c>
       <c r="I61">
@@ -3681,28 +3681,28 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>9</v>
       </c>
       <c r="I62">
@@ -3713,28 +3713,28 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>9</v>
       </c>
       <c r="I63">
@@ -3745,28 +3745,28 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>152</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>9</v>
       </c>
       <c r="I64">
@@ -3777,28 +3777,28 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>154</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>9</v>
       </c>
       <c r="I65">
@@ -3809,28 +3809,28 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>48</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>156</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>9</v>
       </c>
       <c r="I66">
@@ -3841,28 +3841,28 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>16</v>
       </c>
       <c r="I67">
@@ -3873,28 +3873,28 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>9</v>
       </c>
       <c r="I68">
@@ -3905,28 +3905,28 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>160</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>16</v>
       </c>
       <c r="I69">
@@ -3937,28 +3937,28 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>56</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" t="s">
         <v>9</v>
       </c>
       <c r="I70">
@@ -3969,28 +3969,28 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" t="s">
         <v>9</v>
       </c>
       <c r="I71">
@@ -4001,28 +4001,28 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>41</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>164</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>9</v>
       </c>
       <c r="I72">
@@ -4033,28 +4033,28 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>166</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>129</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>9</v>
       </c>
       <c r="I73">
@@ -4065,28 +4065,28 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" t="s">
         <v>16</v>
       </c>
       <c r="I74">
@@ -4097,28 +4097,28 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" t="s">
         <v>9</v>
       </c>
       <c r="I75">
@@ -4129,28 +4129,28 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" t="s">
         <v>9</v>
       </c>
       <c r="I76">
@@ -4161,28 +4161,28 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>171</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" t="s">
         <v>9</v>
       </c>
       <c r="I77">
@@ -4193,28 +4193,28 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" t="s">
         <v>56</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" t="s">
         <v>9</v>
       </c>
       <c r="I78">
@@ -4225,28 +4225,28 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>175</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" t="s">
         <v>9</v>
       </c>
       <c r="I79">
@@ -4257,28 +4257,28 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" t="s">
         <v>56</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>177</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" t="s">
         <v>16</v>
       </c>
       <c r="I80">
@@ -4289,28 +4289,28 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" t="s">
         <v>178</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" t="s">
         <v>41</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>29</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" t="s">
         <v>16</v>
       </c>
       <c r="I81">
@@ -4321,28 +4321,28 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>180</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" t="s">
         <v>41</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>51</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" t="s">
         <v>9</v>
       </c>
       <c r="I82">
@@ -4353,28 +4353,28 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>182</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" t="s">
         <v>9</v>
       </c>
       <c r="I83">
@@ -4385,28 +4385,28 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s">
         <v>183</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>29</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" t="s">
         <v>16</v>
       </c>
       <c r="I84">
@@ -4417,28 +4417,28 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>106</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" t="s">
         <v>9</v>
       </c>
       <c r="I85">
@@ -4449,28 +4449,28 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B86" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>27</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>59</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>41</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>186</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" t="s">
         <v>16</v>
       </c>
       <c r="I86">
@@ -4481,28 +4481,28 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>188</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>44</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>189</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" t="s">
         <v>16</v>
       </c>
       <c r="I87">
@@ -4513,28 +4513,28 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>191</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" t="s">
         <v>9</v>
       </c>
       <c r="I88">
@@ -4545,28 +4545,28 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>100</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" t="s">
         <v>44</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" t="s">
         <v>9</v>
       </c>
       <c r="I89">
@@ -4577,28 +4577,28 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>194</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>13</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>29</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" t="s">
         <v>16</v>
       </c>
       <c r="I90">
@@ -4609,28 +4609,28 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>29</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" t="s">
         <v>9</v>
       </c>
       <c r="I91">
@@ -4641,28 +4641,28 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" t="s">
         <v>70</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>112</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" t="s">
         <v>9</v>
       </c>
       <c r="I92">
@@ -4673,28 +4673,28 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>93</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" t="s">
         <v>70</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" t="s">
         <v>29</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" t="s">
         <v>9</v>
       </c>
       <c r="I93">
@@ -4705,28 +4705,28 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>199</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" t="s">
         <v>9</v>
       </c>
       <c r="I94">
@@ -4737,28 +4737,28 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" t="s">
         <v>41</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>29</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" t="s">
         <v>9</v>
       </c>
       <c r="I95">
@@ -4782,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF81EB76-E4A5-44A3-964A-2F0A94198C3A}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,7 +4804,7 @@
       <c r="A1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C1" t="s">
@@ -4819,7 +4819,7 @@
       <c r="F1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>322</v>
       </c>
       <c r="H1" t="s">
@@ -4901,7 +4901,7 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
         <v>215</v>
@@ -4910,22 +4910,22 @@
         <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>15.25</v>
       </c>
       <c r="J4">
-        <v>29.15</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4933,7 +4933,7 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
@@ -4942,22 +4942,22 @@
         <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>56.35</v>
+        <v>20.2</v>
       </c>
       <c r="J5">
-        <v>14.18</v>
+        <v>40.729999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>215</v>
@@ -4974,22 +4974,22 @@
         <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>21.77</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>215</v>
@@ -5006,22 +5006,22 @@
         <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.299999999999997</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>40.619999999999997</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>215</v>
@@ -5038,22 +5038,22 @@
         <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
         <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.25</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>25.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5061,7 +5061,7 @@
         <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>215</v>
@@ -5070,10 +5070,10 @@
         <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -5082,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.309999999999999</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>39.69</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>215</v>
@@ -5102,22 +5102,22 @@
         <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
         <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.2</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>40.729999999999997</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>215</v>
@@ -5134,19 +5134,19 @@
         <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>40</v>
@@ -5157,7 +5157,7 @@
         <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
@@ -5166,22 +5166,22 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>18.309999999999999</v>
+        <v>56.35</v>
       </c>
       <c r="J12">
-        <v>24.77</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
         <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
         <v>215</v>
@@ -5198,22 +5198,22 @@
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>21.77</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="J13">
-        <v>58.33</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5221,7 +5221,7 @@
         <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>215</v>
@@ -5230,22 +5230,22 @@
         <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.309999999999999</v>
+        <v>13</v>
       </c>
       <c r="J14">
-        <v>1.99</v>
+        <v>29.15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5253,7 +5253,7 @@
         <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
         <v>215</v>
@@ -5262,22 +5262,22 @@
         <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>40.01</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5285,7 +5285,7 @@
         <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>215</v>
@@ -5294,22 +5294,22 @@
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.670000000000002</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="J16">
-        <v>39.74</v>
+        <v>40.619999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>215</v>
@@ -5326,22 +5326,22 @@
         <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="J17">
-        <v>40</v>
+        <v>39.69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
         <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
         <v>215</v>
@@ -5358,22 +5358,22 @@
         <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18">
-        <v>27.19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>215</v>
@@ -5390,22 +5390,22 @@
         <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="J19">
-        <v>40.99</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5413,7 +5413,7 @@
         <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
         <v>215</v>
@@ -5437,7 +5437,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="J20">
-        <v>0.94</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
         <v>215</v>
@@ -5460,7 +5460,7 @@
         <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="J21">
-        <v>1.99</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5477,7 +5477,7 @@
         <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -5486,22 +5486,22 @@
         <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="J22">
-        <v>40</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
         <v>215</v>
@@ -5582,22 +5582,22 @@
         <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.31</v>
+        <v>20.7</v>
       </c>
       <c r="J25">
-        <v>8.5500000000000007</v>
+        <v>39.51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5605,7 +5605,7 @@
         <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -5614,13 +5614,13 @@
         <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F26" t="s">
         <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>15.31</v>
       </c>
       <c r="J26">
-        <v>19.72</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5637,7 +5637,7 @@
         <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -5646,22 +5646,22 @@
         <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>20.7</v>
+        <v>15.31</v>
       </c>
       <c r="J27">
-        <v>39.51</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
         <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
         <v>215</v>
@@ -5678,22 +5678,22 @@
         <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>19.739999999999998</v>
+        <v>20.6</v>
       </c>
       <c r="J28">
-        <v>36.92</v>
+        <v>27.11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>215</v>
@@ -5710,22 +5710,22 @@
         <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
         <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>20.6</v>
+        <v>24.5</v>
       </c>
       <c r="J29">
-        <v>27.11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5733,7 +5733,7 @@
         <v>202</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
         <v>215</v>
@@ -5742,22 +5742,22 @@
         <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>19.89</v>
+        <v>15.5</v>
       </c>
       <c r="J30">
-        <v>43.02</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
         <v>215</v>
@@ -5774,22 +5774,22 @@
         <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>43.02</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5797,7 +5797,7 @@
         <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
         <v>215</v>
@@ -5806,22 +5806,22 @@
         <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="J32">
-        <v>26</v>
+        <v>36.92</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>202</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C33" t="s">
         <v>215</v>
@@ -5838,22 +5838,22 @@
         <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>24.5</v>
+        <v>19.89</v>
       </c>
       <c r="J33">
-        <v>36</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C34" t="s">
         <v>215</v>
@@ -5870,22 +5870,22 @@
         <v>220</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>15.5</v>
+        <v>19.89</v>
       </c>
       <c r="J34">
-        <v>36</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
         <v>215</v>
@@ -5902,22 +5902,22 @@
         <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>24.61</v>
       </c>
       <c r="J35">
-        <v>30</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5925,7 +5925,7 @@
         <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s">
         <v>215</v>
@@ -5934,22 +5934,22 @@
         <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F36" t="s">
         <v>205</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>24.61</v>
+        <v>20</v>
       </c>
       <c r="J36">
-        <v>11.93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5957,7 +5957,7 @@
         <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
         <v>215</v>
@@ -5966,22 +5966,22 @@
         <v>220</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37" t="s">
         <v>205</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>20.49</v>
+        <v>24.61</v>
       </c>
       <c r="J37">
-        <v>20.76</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
         <v>215</v>
@@ -5998,22 +5998,22 @@
         <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>24.61</v>
+        <v>20.49</v>
       </c>
       <c r="J38">
-        <v>9.34</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
         <v>216</v>
@@ -6254,22 +6254,22 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>17.07</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>20.100000000000001</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -6277,7 +6277,7 @@
         <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
         <v>216</v>
@@ -6286,13 +6286,13 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F47" t="s">
         <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="J47">
-        <v>39.979999999999997</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -6309,7 +6309,7 @@
         <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
         <v>216</v>
@@ -6318,10 +6318,10 @@
         <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -6330,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>19.57</v>
+        <v>20</v>
       </c>
       <c r="J48">
-        <v>40.46</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6341,7 +6341,7 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
         <v>216</v>
@@ -6350,22 +6350,22 @@
         <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>19.59</v>
+        <v>20</v>
       </c>
       <c r="J49">
-        <v>40.54</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
         <v>216</v>
@@ -6382,19 +6382,19 @@
         <v>222</v>
       </c>
       <c r="E50" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J50">
         <v>20</v>
@@ -6405,7 +6405,7 @@
         <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C51" t="s">
         <v>216</v>
@@ -6414,19 +6414,19 @@
         <v>222</v>
       </c>
       <c r="E51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J51">
         <v>20</v>
@@ -6437,7 +6437,7 @@
         <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
         <v>216</v>
@@ -6446,22 +6446,22 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>17.07</v>
       </c>
       <c r="J52">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6469,7 +6469,7 @@
         <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C53" t="s">
         <v>216</v>
@@ -6478,22 +6478,22 @@
         <v>222</v>
       </c>
       <c r="E53" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F53" t="s">
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>21</v>
+        <v>19.57</v>
       </c>
       <c r="J53">
-        <v>40.33</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -6501,7 +6501,7 @@
         <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s">
         <v>216</v>
@@ -6510,10 +6510,10 @@
         <v>222</v>
       </c>
       <c r="E54" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -6522,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>20</v>
+        <v>19.59</v>
       </c>
       <c r="J54">
-        <v>39.83</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
         <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
         <v>216</v>
@@ -6542,13 +6542,13 @@
         <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -6557,7 +6557,7 @@
         <v>20</v>
       </c>
       <c r="J55">
-        <v>22.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s">
         <v>216</v>
@@ -6574,13 +6574,13 @@
         <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F56" t="s">
         <v>207</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>20</v>
       </c>
       <c r="J56">
-        <v>40.28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
         <v>216</v>
@@ -6606,22 +6606,22 @@
         <v>222</v>
       </c>
       <c r="E57" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57">
-        <v>60</v>
+        <v>40.33</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
         <v>216</v>
@@ -6638,22 +6638,22 @@
         <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>20</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -6661,7 +6661,7 @@
         <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
         <v>216</v>
@@ -6670,10 +6670,10 @@
         <v>223</v>
       </c>
       <c r="E59" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -6693,7 +6693,7 @@
         <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
         <v>216</v>
@@ -6702,22 +6702,22 @@
         <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>41.05</v>
       </c>
       <c r="J60">
-        <v>40</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
         <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
         <v>216</v>
@@ -6734,7 +6734,7 @@
         <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F61" t="s">
         <v>204</v>
@@ -6743,13 +6743,13 @@
         <v>29</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>26.5</v>
       </c>
       <c r="J61">
-        <v>40</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C62" t="s">
         <v>216</v>
@@ -6766,22 +6766,22 @@
         <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="J62">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
         <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C63" t="s">
         <v>216</v>
@@ -6798,13 +6798,13 @@
         <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F63" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G63" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>20</v>
       </c>
       <c r="J63">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C65" t="s">
         <v>216</v>
@@ -6862,22 +6862,22 @@
         <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>41.05</v>
+        <v>22.5</v>
       </c>
       <c r="J65">
-        <v>19.64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
         <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
         <v>216</v>
@@ -6894,22 +6894,22 @@
         <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="J66">
-        <v>17.04</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6981,7 +6981,7 @@
         <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
         <v>216</v>
@@ -6990,22 +6990,22 @@
         <v>224</v>
       </c>
       <c r="E69" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>34.200000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="J69">
-        <v>20</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -7013,7 +7013,7 @@
         <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
         <v>216</v>
@@ -7022,22 +7022,22 @@
         <v>224</v>
       </c>
       <c r="E70" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="J70">
-        <v>26.37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
         <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
         <v>216</v>
@@ -7054,22 +7054,22 @@
         <v>224</v>
       </c>
       <c r="E71" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F71" t="s">
         <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J71">
-        <v>18.18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
         <v>202</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
         <v>216</v>
@@ -7086,22 +7086,22 @@
         <v>224</v>
       </c>
       <c r="E72" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>14</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J72">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
         <v>216</v>
@@ -7118,22 +7118,22 @@
         <v>224</v>
       </c>
       <c r="E73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F73" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="J73">
-        <v>39.409999999999997</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -7173,7 +7173,7 @@
         <v>202</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
         <v>216</v>
@@ -7182,22 +7182,22 @@
         <v>224</v>
       </c>
       <c r="E75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J75">
-        <v>30.98</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
         <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s">
         <v>216</v>
@@ -7217,19 +7217,19 @@
         <v>384</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="J76">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
         <v>216</v>
@@ -7278,22 +7278,22 @@
         <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J78">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -7301,7 +7301,7 @@
         <v>202</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s">
         <v>216</v>
@@ -7310,22 +7310,22 @@
         <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="J79">
-        <v>55.12</v>
+        <v>39.409999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -7333,7 +7333,7 @@
         <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C80" t="s">
         <v>216</v>
@@ -7342,22 +7342,22 @@
         <v>224</v>
       </c>
       <c r="E80" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J80">
-        <v>20</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -7365,7 +7365,7 @@
         <v>202</v>
       </c>
       <c r="B81" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C81" t="s">
         <v>216</v>
@@ -7374,22 +7374,22 @@
         <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>19.739999999999998</v>
+        <v>20</v>
       </c>
       <c r="J81">
-        <v>37.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -7397,7 +7397,7 @@
         <v>202</v>
       </c>
       <c r="B82" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s">
         <v>216</v>
@@ -7406,22 +7406,22 @@
         <v>225</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>25.45</v>
+        <v>20</v>
       </c>
       <c r="J82">
-        <v>17.7</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -7429,7 +7429,7 @@
         <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s">
         <v>216</v>
@@ -7438,22 +7438,22 @@
         <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>14.05</v>
+        <v>20</v>
       </c>
       <c r="J83">
-        <v>19.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -7461,7 +7461,7 @@
         <v>202</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
         <v>216</v>
@@ -7470,22 +7470,22 @@
         <v>225</v>
       </c>
       <c r="E84" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F84" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>20.170000000000002</v>
+        <v>20</v>
       </c>
       <c r="J84">
-        <v>38.14</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -7493,7 +7493,7 @@
         <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
         <v>216</v>
@@ -7502,22 +7502,22 @@
         <v>225</v>
       </c>
       <c r="E85" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="J85">
-        <v>36</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
         <v>202</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C86" t="s">
         <v>216</v>
@@ -7534,22 +7534,22 @@
         <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>25.45</v>
       </c>
       <c r="J86">
-        <v>38.19</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -7557,7 +7557,7 @@
         <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s">
         <v>216</v>
@@ -7566,22 +7566,22 @@
         <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F87" t="s">
         <v>204</v>
       </c>
       <c r="G87" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>20.51</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="J87">
-        <v>35.700000000000003</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -7589,7 +7589,7 @@
         <v>202</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" t="s">
         <v>216</v>
@@ -7598,22 +7598,22 @@
         <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F88" t="s">
         <v>204</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>20</v>
+        <v>20.51</v>
       </c>
       <c r="J88">
-        <v>36.4</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,7 +7621,7 @@
         <v>202</v>
       </c>
       <c r="B89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s">
         <v>216</v>
@@ -7630,13 +7630,13 @@
         <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F89" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>20</v>
       </c>
       <c r="J89">
-        <v>36</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -7653,7 +7653,7 @@
         <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s">
         <v>216</v>
@@ -7662,22 +7662,22 @@
         <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G90" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>20</v>
+        <v>20.51</v>
       </c>
       <c r="J90">
-        <v>35.92</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -7685,7 +7685,7 @@
         <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C91" t="s">
         <v>216</v>
@@ -7694,7 +7694,7 @@
         <v>225</v>
       </c>
       <c r="E91" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F91" t="s">
         <v>209</v>
@@ -7703,10 +7703,10 @@
         <v>29</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>22.75</v>
+        <v>14.05</v>
       </c>
       <c r="J91">
         <v>19.8</v>
@@ -7717,7 +7717,7 @@
         <v>202</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C92" t="s">
         <v>216</v>
@@ -7726,22 +7726,22 @@
         <v>225</v>
       </c>
       <c r="E92" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F92" t="s">
         <v>209</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>14</v>
+        <v>22.75</v>
       </c>
       <c r="J92">
-        <v>18.079999999999998</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
         <v>202</v>
       </c>
       <c r="B93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
         <v>216</v>
@@ -7758,22 +7758,22 @@
         <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>20.51</v>
+        <v>14</v>
       </c>
       <c r="J93">
-        <v>35.74</v>
+        <v>18.079999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -7810,9 +7810,740 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J94">
-    <sortCondition ref="C2:C94"/>
     <sortCondition ref="D2:D94"/>
+    <sortCondition ref="F2:F94"/>
   </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81682409-E48D-4524-8429-83F7FE7CDAD1}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>15.25</v>
+      </c>
+      <c r="J2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>15.25</v>
+      </c>
+      <c r="J4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>20.2</v>
+      </c>
+      <c r="J5">
+        <v>40.729999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>21.77</v>
+      </c>
+      <c r="J6">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>56.35</v>
+      </c>
+      <c r="J12">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="J13">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J16">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J17">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J19">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J20">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J22">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/arquivos/CI_Anta_Gorda.xlsx
+++ b/arquivos/CI_Anta_Gorda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6f68d678cfe6957/Documentos/Mestrado/SuperCIATA/arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{74C86D64-3386-497A-8280-BC033CE1C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3D9721-70C9-4635-9831-290440D44641}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{74C86D64-3386-497A-8280-BC033CE1C1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123D5373-74CC-498B-8018-FF00EF2D7849}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E701DE8E-4CB7-44CD-9BA9-69F3EA253A04}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="405">
   <si>
     <t>Número Cadastro</t>
   </si>
@@ -1255,6 +1255,15 @@
   </si>
   <si>
     <t>4300702.3-3.008.00005.1</t>
+  </si>
+  <si>
+    <t>NOM_LOGRADOURO_ADJACENTE</t>
+  </si>
+  <si>
+    <t>DIM_PROFUNDIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA MARECHAL HERMES            </t>
   </si>
 </sst>
 </file>
@@ -1349,6 +1358,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7819,27 +7832,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81682409-E48D-4524-8429-83F7FE7CDAD1}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -7847,704 +7858,496 @@
         <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" t="s">
-        <v>321</v>
+        <v>212</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>322</v>
+        <v>402</v>
+      </c>
+      <c r="G1" t="s">
+        <v>323</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
         <v>218</v>
       </c>
-      <c r="E2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>204</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="b">
+      <c r="F3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3">
+        <v>15.25</v>
+      </c>
+      <c r="H3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>20.2</v>
+      </c>
+      <c r="H4">
+        <v>40.729999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>15.25</v>
-      </c>
-      <c r="J2">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G5">
+        <v>21.77</v>
+      </c>
+      <c r="H5">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
         <v>218</v>
       </c>
-      <c r="E3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>1404</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="H10">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
         <v>218</v>
       </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>15.25</v>
-      </c>
-      <c r="J4">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>20.2</v>
-      </c>
-      <c r="J5">
-        <v>40.729999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>21.77</v>
-      </c>
-      <c r="J6">
-        <v>58.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>40.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>27.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>40.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>204</v>
       </c>
-      <c r="G11" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
+      <c r="G11">
+        <v>56.35</v>
+      </c>
+      <c r="H11">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="H12">
+        <v>39.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
         <v>218</v>
       </c>
-      <c r="E12" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>56.35</v>
-      </c>
-      <c r="J12">
-        <v>14.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H15">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
         <v>218</v>
       </c>
-      <c r="E13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="J13">
-        <v>39.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G16">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="H16">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" t="s">
         <v>218</v>
       </c>
-      <c r="E14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>29.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
         <v>218</v>
       </c>
-      <c r="E15" t="s">
-        <v>329</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D18" t="s">
         <v>207</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="H18">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
         <v>218</v>
       </c>
-      <c r="E16" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D19" t="s">
         <v>207</v>
       </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J16">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
         <v>218</v>
       </c>
-      <c r="E17" t="s">
-        <v>331</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D20" t="s">
         <v>207</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G21">
         <v>18.309999999999999</v>
       </c>
-      <c r="J17">
-        <v>39.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" t="s">
-        <v>331</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="J19">
-        <v>24.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="J20">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>331</v>
-      </c>
-      <c r="F21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="J21">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="J22">
+      <c r="H21">
         <v>1.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
